--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Artn</t>
   </si>
   <si>
     <t>Gfra3</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +540,40 @@
         <v>1.602144</v>
       </c>
       <c r="I2">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J2">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.615968</v>
+        <v>0.036591</v>
       </c>
       <c r="N2">
-        <v>3.231936</v>
+        <v>0.073182</v>
       </c>
       <c r="O2">
-        <v>0.9915522087733246</v>
+        <v>0.01193099839087543</v>
       </c>
       <c r="P2">
-        <v>0.9873816119140704</v>
+        <v>0.01193099839087543</v>
       </c>
       <c r="Q2">
-        <v>0.8630044784639999</v>
+        <v>0.019541350368</v>
       </c>
       <c r="R2">
-        <v>5.178026870784</v>
+        <v>0.117248102208</v>
       </c>
       <c r="S2">
-        <v>0.4387076791125955</v>
+        <v>0.002974169694441439</v>
       </c>
       <c r="T2">
-        <v>0.4968708658382351</v>
+        <v>0.003966827438268982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,40 +602,40 @@
         <v>1.602144</v>
       </c>
       <c r="I3">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J3">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01376766666666667</v>
+        <v>3.030294</v>
       </c>
       <c r="N3">
-        <v>0.041303</v>
+        <v>6.060588</v>
       </c>
       <c r="O3">
-        <v>0.008447791226675411</v>
+        <v>0.9880690016091246</v>
       </c>
       <c r="P3">
-        <v>0.01261838808592957</v>
+        <v>0.9880690016091246</v>
       </c>
       <c r="Q3">
-        <v>0.007352594847999999</v>
+        <v>1.618322450112</v>
       </c>
       <c r="R3">
-        <v>0.066173353632</v>
+        <v>9.709934700672001</v>
       </c>
       <c r="S3">
-        <v>0.003737686074309131</v>
+        <v>0.246306703288998</v>
       </c>
       <c r="T3">
-        <v>0.006349834084498155</v>
+        <v>0.3285139347167847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.6083065</v>
+      </c>
+      <c r="H4">
+        <v>3.216613</v>
+      </c>
+      <c r="I4">
+        <v>0.7507191270165605</v>
+      </c>
+      <c r="J4">
+        <v>0.6675192378449464</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>0.4373315</v>
-      </c>
-      <c r="H4">
-        <v>0.874663</v>
-      </c>
-      <c r="I4">
-        <v>0.3623181721965756</v>
-      </c>
-      <c r="J4">
-        <v>0.274724698314582</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.615968</v>
+        <v>0.036591</v>
       </c>
       <c r="N4">
-        <v>3.231936</v>
+        <v>0.073182</v>
       </c>
       <c r="O4">
-        <v>0.9915522087733246</v>
+        <v>0.01193099839087543</v>
       </c>
       <c r="P4">
-        <v>0.9873816119140704</v>
+        <v>0.01193099839087543</v>
       </c>
       <c r="Q4">
-        <v>0.706713709392</v>
+        <v>0.0588495431415</v>
       </c>
       <c r="R4">
-        <v>2.826854837568</v>
+        <v>0.235398172566</v>
       </c>
       <c r="S4">
-        <v>0.3592573839202283</v>
+        <v>0.008956828696433992</v>
       </c>
       <c r="T4">
-        <v>0.2712581154544587</v>
+        <v>0.00796417095260645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H5">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I5">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J5">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01376766666666667</v>
+        <v>3.030294</v>
       </c>
       <c r="N5">
-        <v>0.041303</v>
+        <v>6.060588</v>
       </c>
       <c r="O5">
-        <v>0.008447791226675411</v>
+        <v>0.9880690016091246</v>
       </c>
       <c r="P5">
-        <v>0.01261838808592957</v>
+        <v>0.9880690016091246</v>
       </c>
       <c r="Q5">
-        <v>0.006021034314833333</v>
+        <v>4.873641537111</v>
       </c>
       <c r="R5">
-        <v>0.036126205889</v>
+        <v>19.494566148444</v>
       </c>
       <c r="S5">
-        <v>0.003060788276347302</v>
+        <v>0.7417622983201265</v>
       </c>
       <c r="T5">
-        <v>0.003466582860123316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.706973</v>
-      </c>
-      <c r="I6">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J6">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.615968</v>
-      </c>
-      <c r="N6">
-        <v>3.231936</v>
-      </c>
-      <c r="O6">
-        <v>0.9915522087733246</v>
-      </c>
-      <c r="P6">
-        <v>0.9873816119140704</v>
-      </c>
-      <c r="Q6">
-        <v>0.380815248288</v>
-      </c>
-      <c r="R6">
-        <v>2.284891489727999</v>
-      </c>
-      <c r="S6">
-        <v>0.1935871457405008</v>
-      </c>
-      <c r="T6">
-        <v>0.2192526306213765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.706973</v>
-      </c>
-      <c r="I7">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J7">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01376766666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.041303</v>
-      </c>
-      <c r="O7">
-        <v>0.008447791226675411</v>
-      </c>
-      <c r="P7">
-        <v>0.01261838808592957</v>
-      </c>
-      <c r="Q7">
-        <v>0.003244456202111111</v>
-      </c>
-      <c r="R7">
-        <v>0.029200105819</v>
-      </c>
-      <c r="S7">
-        <v>0.001649316876018978</v>
-      </c>
-      <c r="T7">
-        <v>0.002801971141308094</v>
+        <v>0.6595550668923399</v>
       </c>
     </row>
   </sheetData>
